--- a/data/trans_dic/P11_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P11_R2-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1958718210814741</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2836621338036046</v>
+        <v>0.2836621338036047</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.08104795249817687</v>
@@ -697,7 +697,7 @@
         <v>0.1527080794596977</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2422810823230173</v>
+        <v>0.2422810823230172</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05584205226119728</v>
+        <v>0.0554907751486152</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08998582205776141</v>
+        <v>0.08958894161112121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07752762548322482</v>
+        <v>0.07741584226317298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1564147136845014</v>
+        <v>0.1556665884167623</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07531577292630032</v>
+        <v>0.0749195665094468</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1643349116191262</v>
+        <v>0.1643790420026016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.167283313381722</v>
+        <v>0.1717819850203209</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.259871626705926</v>
+        <v>0.2603483689328971</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07091903794050348</v>
+        <v>0.07050260850411594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1392361224309527</v>
+        <v>0.1394872060546086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1348826672927332</v>
+        <v>0.1365544351235858</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2236692683533696</v>
+        <v>0.224693129153481</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08609688777684542</v>
+        <v>0.08812688603075958</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1341960680014344</v>
+        <v>0.1354695288453825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1176689274009941</v>
+        <v>0.1200293027417789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2172959519323995</v>
+        <v>0.2158568035559615</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1081618834452022</v>
+        <v>0.1052736592817806</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2061770349506606</v>
+        <v>0.2076373625589413</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.223647533676487</v>
+        <v>0.223392556588996</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3085696407084746</v>
+        <v>0.3062223801215705</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0923682287284667</v>
+        <v>0.09377419480771437</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1696469000412513</v>
+        <v>0.1693432455973171</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1715771644534124</v>
+        <v>0.1724527902707201</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2609427450457565</v>
+        <v>0.2636904118861726</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.05395706014877473</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08626589342771057</v>
+        <v>0.08626589342771059</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02268683532066694</v>
@@ -833,7 +833,7 @@
         <v>0.0408930057024714</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0748482027178899</v>
+        <v>0.07484820271788992</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01200539505201164</v>
+        <v>0.01197956281903142</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01971520809997345</v>
+        <v>0.02070942318495699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02189318808208858</v>
+        <v>0.02121669322296402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05468740425524882</v>
+        <v>0.05406610818366341</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02058541774313398</v>
+        <v>0.021416741649023</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04012119201619523</v>
+        <v>0.04051264884625279</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04520946321115789</v>
+        <v>0.04494552316257285</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07741245729393985</v>
+        <v>0.07657720261526636</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01745276588114286</v>
+        <v>0.01803306462845978</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03212182976759548</v>
+        <v>0.03278895773716229</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03466279849212119</v>
+        <v>0.03488462299863317</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06732343087136841</v>
+        <v>0.06754826232348522</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02448661885577224</v>
+        <v>0.02416038653500774</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0365399400115503</v>
+        <v>0.0368193276334232</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03649861224717325</v>
+        <v>0.03684362657542945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07612047496192814</v>
+        <v>0.07481353232704821</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0386349669737809</v>
+        <v>0.03972578667729906</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06410053624105309</v>
+        <v>0.06274649155004765</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06465143953427858</v>
+        <v>0.06579133904209727</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09844235552256243</v>
+        <v>0.09685515824286756</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0286075832725677</v>
+        <v>0.0282614570851808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04522141674037522</v>
+        <v>0.04597943186043674</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04807667026126444</v>
+        <v>0.04822075511391774</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08277858049643969</v>
+        <v>0.08202818786409119</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02877518513880355</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05181087193740125</v>
+        <v>0.05181087193740126</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0139712219508763</v>
+        <v>0.01416815275485209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009414696049636261</v>
+        <v>0.009019868446078706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006908802919488814</v>
+        <v>0.008569654517743662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02994075853411938</v>
+        <v>0.02968749821394014</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01111779586343178</v>
+        <v>0.01289392095431888</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01318658947149025</v>
+        <v>0.0125158728969176</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0259080170365926</v>
+        <v>0.02533092691622716</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0463049466360596</v>
+        <v>0.04732586912539487</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01619873679544178</v>
+        <v>0.01667536609944541</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01441909550142874</v>
+        <v>0.01371089072996133</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02008787024010205</v>
+        <v>0.01919942214350696</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04125158624491328</v>
+        <v>0.04095873610982266</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04545875344581124</v>
+        <v>0.04590862362596509</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0430092154024838</v>
+        <v>0.04309569435953888</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02975094969365346</v>
+        <v>0.03210831976876143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06166028090960475</v>
+        <v>0.06292230531435335</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04027105688502256</v>
+        <v>0.04254096968613215</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04759892370891281</v>
+        <v>0.04538037524749633</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06335907213406522</v>
+        <v>0.06310616586323056</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07787717190107746</v>
+        <v>0.07922885316075154</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03779587739623122</v>
+        <v>0.03881392519929574</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03858665957808838</v>
+        <v>0.03613868381820051</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04165234547804467</v>
+        <v>0.03992249864584216</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06369310207385365</v>
+        <v>0.06352414067045345</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04160342240575966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0792231071180919</v>
+        <v>0.07922310711809191</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05195888329877429</v>
@@ -1093,7 +1093,7 @@
         <v>0.0916772600698116</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1246521042239529</v>
+        <v>0.1246521042239528</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04364143502619839</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04372860110838084</v>
+        <v>0.04343228748124595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03553827190601824</v>
+        <v>0.03517657496969957</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07083518938840423</v>
+        <v>0.07070666554322474</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08818004040804726</v>
+        <v>0.08726873057356149</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08211674466796093</v>
+        <v>0.08171726902558459</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1169195172534151</v>
+        <v>0.1166450219810396</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06842112012463546</v>
+        <v>0.06894065958658324</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06115568481747766</v>
+        <v>0.06106519497725693</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09641033410872424</v>
+        <v>0.09633892054364991</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05966884114541291</v>
+        <v>0.06038793612961164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04916237204696035</v>
+        <v>0.04916414014110695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08783106037346086</v>
+        <v>0.08864892936610397</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1081293960120763</v>
+        <v>0.107053013824622</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1019345809011856</v>
+        <v>0.1025385603003462</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1337569570633052</v>
+        <v>0.133654563871874</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08158095395182456</v>
+        <v>0.08187567186843546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07343903865237304</v>
+        <v>0.07338861585192928</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1093945206326365</v>
+        <v>0.1091481878861724</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>57614</v>
+        <v>57251</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>87336</v>
+        <v>86950</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>58178</v>
+        <v>58094</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>90490</v>
+        <v>90058</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>99049</v>
+        <v>98528</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>219692</v>
+        <v>219751</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>164411</v>
+        <v>168832</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>213000</v>
+        <v>213391</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>166435</v>
+        <v>165458</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>321274</v>
+        <v>321853</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>233784</v>
+        <v>236681</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>312727</v>
+        <v>314158</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>88828</v>
+        <v>90923</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>130244</v>
+        <v>131480</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88300</v>
+        <v>90071</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>125712</v>
+        <v>124879</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>142245</v>
+        <v>138447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>275629</v>
+        <v>277582</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>219807</v>
+        <v>219556</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>252914</v>
+        <v>250991</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>216773</v>
+        <v>220073</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>391444</v>
+        <v>390743</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>297384</v>
+        <v>298902</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>364841</v>
+        <v>368683</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20330</v>
+        <v>20286</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38506</v>
+        <v>40448</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45127</v>
+        <v>43733</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>121872</v>
+        <v>120488</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32683</v>
+        <v>34003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>70408</v>
+        <v>71095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>89489</v>
+        <v>88966</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>168057</v>
+        <v>166243</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>57264</v>
+        <v>59168</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>119108</v>
+        <v>121581</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>140061</v>
+        <v>140958</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>296186</v>
+        <v>297175</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41466</v>
+        <v>40914</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>71367</v>
+        <v>71913</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>75233</v>
+        <v>75944</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>169636</v>
+        <v>166724</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>61340</v>
+        <v>63072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>112488</v>
+        <v>110112</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>127973</v>
+        <v>130229</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>213711</v>
+        <v>210265</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>93864</v>
+        <v>92728</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>167681</v>
+        <v>170492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>194262</v>
+        <v>194845</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>364180</v>
+        <v>360879</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7704</v>
+        <v>7812</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4510</v>
+        <v>4321</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3739</v>
+        <v>4638</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21258</v>
+        <v>21078</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5297</v>
+        <v>6143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6048</v>
+        <v>5740</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14179</v>
+        <v>13863</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>33955</v>
+        <v>34703</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16649</v>
+        <v>17139</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13520</v>
+        <v>12856</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>21866</v>
+        <v>20899</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>59538</v>
+        <v>59116</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25066</v>
+        <v>25314</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20602</v>
+        <v>20644</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16102</v>
+        <v>17378</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43779</v>
+        <v>44675</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19186</v>
+        <v>20267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21830</v>
+        <v>20813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34676</v>
+        <v>34537</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57106</v>
+        <v>58098</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38847</v>
+        <v>39894</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36181</v>
+        <v>33885</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45340</v>
+        <v>43457</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>91928</v>
+        <v>91684</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>148795</v>
+        <v>147787</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>119156</v>
+        <v>117943</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>249132</v>
+        <v>248680</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>313071</v>
+        <v>309836</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>288193</v>
+        <v>286791</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>435391</v>
+        <v>434369</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>475736</v>
+        <v>479348</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>419677</v>
+        <v>419056</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>698099</v>
+        <v>697581</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>203035</v>
+        <v>205481</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>164836</v>
+        <v>164842</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>308907</v>
+        <v>311784</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>383899</v>
+        <v>380077</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>357744</v>
+        <v>359864</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>498091</v>
+        <v>497710</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>567237</v>
+        <v>569286</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>503971</v>
+        <v>503625</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>792116</v>
+        <v>790332</v>
       </c>
     </row>
     <row r="20">
